--- a/data/trans_bre/P21D_5_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P21D_5_R-Clase-trans_bre.xlsx
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.645000833411581</v>
+        <v>-1.7344736378073</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.5267679226221417</v>
+        <v>-0.5267679226221418</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>-1</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.175254000571</v>
+        <v>-2.86800294317566</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -675,7 +675,7 @@
         <v>0.1567065225853151</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.4435417076946248</v>
+        <v>0.4435417076946249</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5815900409429544</v>
+        <v>-0.5619250825191793</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9298105351177391</v>
+        <v>1.028752353954519</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8774382251096983</v>
+        <v>0.877438225109698</v>
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3116304991593002</v>
+        <v>0.2908374267781252</v>
       </c>
       <c r="D17" s="6" t="inlineStr"/>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.211201764911468</v>
+        <v>2.024069720891047</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1724493381168607</v>
+        <v>0.1724493381168606</v>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.068775253963666</v>
+        <v>1.038857438807988</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1414164914446637</v>
+        <v>0.1414164914446636</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.6368520268575871</v>
+        <v>0.6368520268575868</v>
       </c>
     </row>
     <row r="23">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1773201144862835</v>
+        <v>-0.2116462122551009</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.5769900727081994</v>
+        <v>-0.6728809166635887</v>
       </c>
     </row>
     <row r="24">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4577602549046144</v>
+        <v>0.4348338879028482</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>5.632296015656272</v>
+        <v>6.017050649065207</v>
       </c>
     </row>
     <row r="25">
